--- a/doc/通讯协议.xlsx
+++ b/doc/通讯协议.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY_PROJ\Marlin2SamplerWrapper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA388EA-0629-455E-90A7-446AEB85B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA8903E-CEE6-44FB-B3A1-472C0892DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modbus数据帧结构" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>地址码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,18 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14 06 00 02 ff ff 2b 7f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 03 00 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 03 00 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针头抬起，并移动至第1个样品瓶上方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针头抬起，并移动至“废液瓶”上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针头抬起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,35 +265,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针头当前位于第3个样品瓶上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于第14个样品瓶上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于“废液瓶”上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于其他位置，需要XYZ归零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 03 00 04 00 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 03 00 05 00 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针头当前处于抬起状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>针头当前处于落下状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 03 00 01 ba cf</t>
+  </si>
+  <si>
+    <t>14 06 00 03 00 02 fa ce</t>
+  </si>
+  <si>
+    <t>14 03 00 04 00 01 c7 0e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 05 00 01 96 ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 02 00 65 ea e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，并移动至废液瓶（第101个样品瓶）上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于其他未定义的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于零点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于第14个样品瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于第3个样品瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于“废液瓶”（第101个样品瓶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，移动至第1个样品瓶上方，并且落下针头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，移动至第25个样品瓶上方，并且落下针头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，移动至第14个样品瓶上方，并且落下针头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，移动至“废液瓶”（第101个样品瓶）上方，并且落下针头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 06 00 0e ea ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 06 00 19 aa c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 06 00 65 ab 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动并注射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 06 00 06 00 01 aa ce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,46 +485,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,54 +837,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -845,54 +892,54 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -900,126 +947,126 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1040,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649B22A3-87CC-4A26-8502-9719C9A1A7EB}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1051,210 +1098,286 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.21875" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+    <row r="1" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="18" t="s">
         <v>63</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
+      <c r="A13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
+      <c r="B15" s="9"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>70</v>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="15">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA153A8B-BF29-4643-9E10-BA351882937A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/doc/通讯协议.xlsx
+++ b/doc/通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY_PROJ\Marlin2SamplerWrapper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA8903E-CEE6-44FB-B3A1-472C0892DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEAE21-0573-4A64-9020-932BFD6FC5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modbus数据帧结构" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>地址码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,18 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针头抬起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询针头位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能码+128（0x80）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,101 +233,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动针头位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动针头高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>站号为20（0x14），支持的功能码为03（读取保持寄存器）和06（写入单寄存器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前处于抬起状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前处于落下状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14 06 00 03 00 01 ba cf</t>
   </si>
   <si>
+    <t>14 06 00 02 00 65 ea e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头抬起，并移动至废液瓶（第101个样品瓶）上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于其他未定义的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站号为20（0x14），支持的功能码为03（读取保持寄存器）和06（写入单寄存器）。循环写，需要考虑避免重复执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器地址（十进制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询是否已经归零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询针头XY位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动针头XY位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机响应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODBUS功能码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06（写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03（读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0d 00 01 17 0c</t>
+  </si>
+  <si>
+    <t>14 03 00 0d 00 01 17 0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0c 00 01 46 cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0b 00 01 f7 0d</t>
+  </si>
+  <si>
+    <t>14 03 00 0b 00 01 f7 0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入01，针头抬起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入02，针头落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回01，表明针头已经抬起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回02，表明针头已经落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于第1个样品瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于“废液瓶”（第100个样品瓶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于第14个样品瓶（最多25个瓶子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0c 00 0e 06 c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0c 00 64 86 e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0c 00 ff c7 4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头当前位于零点（第101个样品瓶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0c 00 65 47 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 03 00 0b 00 00 36 cd</t>
+  </si>
+  <si>
+    <t>14 03 00 0d 00 02 57 0d</t>
+  </si>
+  <si>
+    <t>返回0，表明未归零，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回1，表明已经完成归零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14 06 00 03 00 02 fa ce</t>
-  </si>
-  <si>
-    <t>14 03 00 04 00 01 c7 0e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 03 00 05 00 01 96 ce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 02 00 65 ea e4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头抬起，并移动至废液瓶（第101个样品瓶）上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于其他未定义的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于零点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于第14个样品瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于第3个样品瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头当前位于“废液瓶”（第101个样品瓶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头抬起，移动至第1个样品瓶上方，并且落下针头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头抬起，移动至第25个样品瓶上方，并且落下针头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头抬起，移动至第14个样品瓶上方，并且落下针头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针头抬起，移动至“废液瓶”（第101个样品瓶）上方，并且落下针头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 06 00 0e ea ca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 06 00 19 aa c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 06 00 65 ab 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动并注射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 06 00 06 00 01 aa ce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +401,13 @@
       <name val="Microsoft New Tai Lue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft New Tai Lue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,9 +512,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,43 +532,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,257 +870,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="23.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1087,297 +1141,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649B22A3-87CC-4A26-8502-9719C9A1A7EB}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="67" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="3" width="18.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="67" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>5</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="12">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>5</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>6</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="6" t="s">
+      <c r="G19" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="6" t="s">
-        <v>75</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="24">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/通讯协议.xlsx
+++ b/doc/通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY_PROJ\Marlin2SamplerWrapper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEAE21-0573-4A64-9020-932BFD6FC5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4425A5-F06B-48AC-B461-C2257843B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modbus数据帧结构" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>站号为20（0x14），支持的功能码为03（读取保持寄存器）和06（写入单寄存器）。循环写，需要考虑避免重复执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寄存器地址（十进制）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +369,10 @@
   </si>
   <si>
     <t>14 06 00 03 00 02 fa ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站号为20（0x14），支持的功能码为03（读取保持寄存器）和06（写入单寄存器）。循环写，需要考虑避免重复执行。运动完成后再改变寄存器的值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,16 +542,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,31 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +908,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -926,19 +923,19 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -966,7 +963,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -981,19 +978,19 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1021,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1036,12 +1033,12 @@
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1047,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1144,7 +1141,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1159,317 +1156,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="26" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="12">
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12">
+      <c r="C10" s="20"/>
+      <c r="D10" s="17">
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="25" t="s">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="17">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17">
+        <v>12</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17">
+        <v>13</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>5</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12">
-        <v>12</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>6</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="12">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="G20" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1480,6 +1477,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="D3:D6"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C3:C11"/>
@@ -1492,18 +1500,7 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/通讯协议.xlsx
+++ b/doc/通讯协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY_PROJ\Marlin2SamplerWrapper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4425A5-F06B-48AC-B461-C2257843B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8524D0-053D-4D21-81F5-969DA0150A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X轴归零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y轴归零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +369,10 @@
   </si>
   <si>
     <t>站号为20（0x14），支持的功能码为03（读取保持寄存器）和06（写入单寄存器）。循环写，需要考虑避免重复执行。运动完成后再改变寄存器的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY轴归零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,38 +552,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1156,15 +1156,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="A1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1174,32 +1174,32 @@
         <v>34</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -1211,262 +1211,262 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="18"/>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17">
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18"/>
       <c r="E9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="18"/>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>69</v>
+      <c r="E12" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17">
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="16">
         <v>12</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>67</v>
+      <c r="E14" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="6" t="s">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="17">
+      <c r="B19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="16">
         <v>13</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>66</v>
+      <c r="E19" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,6 +1477,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -1493,14 +1501,6 @@
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
